--- a/ocms/src/test/resources/DownloadedFiles/Branch Management (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Branch Management (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t xml:space="preserve">MainLines</t>
   </si>
@@ -128,33 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">16/10/2019 13:36:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheldon.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheldon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/01/2020 12:32:55</t>
   </si>
 </sst>
 </file>
@@ -222,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -409,47 +382,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
